--- a/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2008 (F08).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2008 (F08).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,399 +444,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Desert</t>
+          <t>('Desert', ['Land — Desert', '{T}: Add {C}.', '{T}: Desert deals 1 damage to target attacking creature. Activate this ability only during the end of combat step.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Land — Desert</t>
+          <t>('Eternal Witness', ['{1}{G}{G}', 'Creature — Human Shaman', 'When Eternal Witness enters the battlefield, you may return target card from your graveyard to your hand.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{T}: Add {C}.</t>
+          <t>('Isochron Scepter', ['{2}', 'Artifact', 'Imprint — When Isochron Scepter enters the battlefield, you may exile an instant card with converted mana cost 2 or less from your hand.', '{2}, {T}: You may copy the exiled card. If you do, you may cast the copy without paying its mana cost.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{T}: Desert deals 1 damage to target attacking creature. Activate this ability only during the end of combat step.</t>
+          <t>('Pendelhaven', ['Legendary Land', '{T}: Add {G}.', '{T}: Target 1/1 creature gets +1/+2 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Eternal Witness</t>
+          <t>('Remand', ['{1}{U}', 'Instant', 'Counter target spell. If that spell is countered this way, put it into its owner’s hand instead of into that player’s graveyard.', 'Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{1}{G}{G}</t>
+          <t>('Resurrection', ['{2}{W}{W}', 'Sorcery', 'Return target creature card from your graveyard to the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Creature — Human Shaman</t>
+          <t>('Serrated Arrows', ['{4}', 'Artifact', 'Serrated Arrows enters the battlefield with three arrowhead counters on it.', 'At the beginning of your upkeep, if there are no arrowhead counters on Serrated Arrows, sacrifice it.', '{T}, Remove an arrowhead counter from Serrated Arrows: Put a -1/-1 counter on target creature.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>When Eternal Witness enters the battlefield, you may return target card from your graveyard to your hand.</t>
+          <t>('Shrapnel Blast', ['{1}{R}', 'Instant', 'As an additional cost to cast this spell, sacrifice an artifact.', 'Shrapnel Blast deals 5 damage to any target.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>('Tendrils of Agony', ['{2}{B}{B}', 'Sorcery', 'Target player loses 2 life and you gain 2 life.', 'Storm (When you cast this spell, copy it for each spell cast before it this turn. You may choose new targets for the copies.)'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Isochron Scepter</t>
+          <t>('Thirst for Knowledge', ['{2}{U}', 'Instant', 'Draw three cards. Then discard two cards unless you discard an artifact card.'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>{2}</t>
+          <t>("Tormod's Crypt", ['{0}', 'Artifact', '{T}, Sacrifice Tormod’s Crypt: Exile all cards from target player’s graveyard.'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Imprint — When Isochron Scepter enters the battlefield, you may exile an instant card with converted mana cost 2 or less from your hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{2}, {T}: You may copy the exiled card. If you do, you may cast the copy without paying its mana cost.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Pendelhaven</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Legendary Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>{T}: Add {G}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>{T}: Target 1/1 creature gets +1/+2 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Remand</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>{1}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Counter target spell. If that spell is countered this way, put it into its owner’s hand instead of into that player’s graveyard.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Resurrection</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>{2}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Return target creature card from your graveyard to the battlefield.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Serrated Arrows</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>{4}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Serrated Arrows enters the battlefield with three arrowhead counters on it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>At the beginning of your upkeep, if there are no arrowhead counters on Serrated Arrows, sacrifice it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>{T}, Remove an arrowhead counter from Serrated Arrows: Put a -1/-1 counter on target creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Shrapnel Blast</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>As an additional cost to cast this spell, sacrifice an artifact.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Shrapnel Blast deals 5 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Tendrils of Agony</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>{2}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Target player loses 2 life and you gain 2 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Storm (When you cast this spell, copy it for each spell cast before it this turn. You may choose new targets for the copies.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Thirst for Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>{2}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Draw three cards. Then discard two cards unless you discard an artifact card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Tormod's Crypt</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>{0}</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>{T}, Sacrifice Tormod’s Crypt: Exile all cards from target player’s graveyard.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Wall of Roots</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Creature — Plant Wall</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Defender</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Put a -0/-1 counter on Wall of Roots: Add {G}. Activate this ability only once each turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>0/5</t>
+          <t>('Wall of Roots', ['{1}{G}', 'Creature — Plant Wall', 'Defender', 'Put a -0/-1 counter on Wall of Roots: Add {G}. Activate this ability only once each turn.', '0/5'])</t>
         </is>
       </c>
     </row>
